--- a/interface-auto-test-model/testdata/mpapi_testdata.xlsx
+++ b/interface-auto-test-model/testdata/mpapi_testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\DP+\py_test\interface-auto-test-model\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm_git_2\interface-auto-test-model\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B1E58A-BC56-40D8-8D29-265FE7709721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F34126-5839-4B49-9D11-150E630718D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
